--- a/resultados_scraping.xlsx
+++ b/resultados_scraping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,411 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>COM 024755252/2018</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 12 - SECRETARIA Nº 24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SINDICATO UNICO DE RECOLECTORES DE RESIDUOS Y BARRIDO DE CORDOBA S.U.R.R.B.A.C. C/ COMPAÑIA DE TRATAMIENTOS ECOLOGICOS S.A. S/OTROS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ARCHÍVESE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8/02/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>COM 024070563/2018</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 12 - SECRETARIA Nº 24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OBRA SOCIAL DEL SINDICATO UNICO DE RECOLECTORES DE RESIDUOS Y BARRIDOS CORDOBA C/ COMPAÑIA DE TRATAMIENTOS ECOLOGICOS S.A. S/OTROS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EN LETRA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COM 024757870/2018</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 12 - SECRETARIA Nº 24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SINDICATO UNICO DE RECOLECTORES DE RESIDUOS Y BARRIDO CORDOBA C/ COMPAÑIA DE TRATAMIENTOS ECOLOGICOS S.A. S/OTROS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARCHIVO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30/01/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>COM 031615/2018/23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 12 - SECRETARIA Nº 24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>INCIDENTE Nº 23 - INCIDENTISTA: OBRA SOCIAL DEL SINDICATO UNICO DE RECOLECTORES DE RESIDUOS Y BARRIDO DE CORDOBA (OSSURRBAC) S/INCIDENTE DE VERIFICACION DE CREDITO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARCHÍVESE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>COM 011100/2011</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 9 - SECRETARIA Nº 18</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CEAMSE C/ RESIDUOS Y RECICLADOS PROVINCIALES S.A. S/ORDINARIO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ARCHIVO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31/07/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>COM 042926/2010</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 11 - SECRETARIA Nº 22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RACIOPPI CARLOS ERNESTO MARUX FIDELITY S.A. C/ AGUAS RESIDUOS Y MEDIO AMBIENTE S.A. S/EXHORTO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ARCHIVO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22/05/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>COM 048468/2010</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 4 - SECRETARIA Nº 7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VALDI DORA ALICIA Y OTRO C/ ABACY S.A. Y OTROS S/ORDINARIO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ARCHÍVESE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29/01/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>COM 048062/2009</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 4 - SECRETARIA Nº 7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>VALDI DORA ALICIA Y OTRO C/ PELCO S.A. Y OTROS S/BENEFICIO DE LITIGAR SIN GASTOS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ARCHÍVESE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29/01/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>COM 055430/2006</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 13 - SECRETARIA Nº 26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>G.C.B.A. C/ DESCONTAMINACION DE RESIDUOS PATOLOGICOS S.A. S/OTROS - QUIEBRA S/ INC. DE VERIFICACION POR G.C.B.A.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EN DESPACHO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30/11/2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>COM 000517/2005</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 13 - SECRETARIA Nº 26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LA CONCURSADA C/ DESCONTAMINACION DE RESIDUOS PATOLOGICOS S.A. S/OTROS - C.P. S/ INC. DE REV. POR LA CONCURSADA ALCREDITO DE BANCO PLATENSE S.A. S/ QUIEBRA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EN DESPACHO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26/10/2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>COM 015232/2005</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 13 - SECRETARIA Nº 26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GCBA C/ DESCONTAMINACION DE RESIDUOS PATOLOGICOS S.A. S/OTROS - QUIEBRA S/VERIFICACION POR G.C.B.A.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EN DESPACHO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7/08/2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COM 048690/2005</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 13 - SECRETARIA Nº 26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BANCO PLATENSE C/ DESCONTAMINACION DE RESIDUOS PATOLOGICOS S.A. S/OTROS - CONC.PREV. S/ INC. DE REVISION PROMOVIDO PORBANCO PLATENSE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EN DESPACHO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9/05/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>COM 058276/2003</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 13 - SECRETARIA Nº 26</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LUNA MIGUEL BENITO C/ DESCONTAMINACION RESIDUOS PATOLOGICOS S.A. S/OTROS - CONCURSO PREVENTIVO S/INCIDENTE DE PRONTOPAGO POR LUNA MIGUEL BENITO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EN DESPACHO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26/09/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>COM 017320/2002</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 13 - SECRETARIA Nº 26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DESCONTAMINACION DE RESIDUOS PATOLOGICOS S.A. S/QUIEBRA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ARCHIVO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12/05/2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>COM 090263/2002</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>JUZGADO COMERCIAL 3 - SECRETARIA Nº 6</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DESCONTAMINACION DE RESIDUOS PATOLOGICOS S.A. C/ OBRA SOCIAL DE LA CIUDAD DE BS AS S/ORDINARIO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EN DESPACHO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9/06/2015</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
